--- a/Intranet/Transparencia/Informacion/Fracciones IPOMEX/1 Fracción I - Normatividad.xlsx
+++ b/Intranet/Transparencia/Informacion/Fracciones IPOMEX/1 Fracción I - Normatividad.xlsx
@@ -5,18 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servidor prueba\Desktop\Uippe\Fracciones IPOMEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Intranet\Transparencia\Informacion\Fracciones IPOMEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15100" windowHeight="6170" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="6165" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="art_92_i" sheetId="1" r:id="rId1"/>
     <sheet name="campo2" sheetId="2" r:id="rId2"/>
     <sheet name="campo5" sheetId="3" r:id="rId3"/>
     <sheet name="idArea" sheetId="4" r:id="rId4"/>
-    <sheet name="Estructura" sheetId="8" r:id="rId5"/>
+    <sheet name="Cata" sheetId="10" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId6"/>
+    <sheet name="Estructura" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="campo2">campo2!$A$2:$A$4</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="185">
   <si>
     <t>Ejercicio</t>
   </si>
@@ -388,16 +390,218 @@
   </si>
   <si>
     <t>Tabla:</t>
+  </si>
+  <si>
+    <t>Clave</t>
+  </si>
+  <si>
+    <t>Descri</t>
+  </si>
+  <si>
+    <t>Posicion</t>
+  </si>
+  <si>
+    <t>ZINACANTEPEC</t>
+  </si>
+  <si>
+    <t>Ayuntamiento</t>
+  </si>
+  <si>
+    <t>Novena Regiduría</t>
+  </si>
+  <si>
+    <t>Sindicatura Municipal</t>
+  </si>
+  <si>
+    <t>Primera Regiduría</t>
+  </si>
+  <si>
+    <t>Segunda Regiduría</t>
+  </si>
+  <si>
+    <t>Tercer Regiduría</t>
+  </si>
+  <si>
+    <t>Cuarto Regiduría</t>
+  </si>
+  <si>
+    <t>Quinta Regiduría</t>
+  </si>
+  <si>
+    <t>Sexta Regiduría</t>
+  </si>
+  <si>
+    <t>Séptima Regiduría</t>
+  </si>
+  <si>
+    <t>Octava Regiduría</t>
+  </si>
+  <si>
+    <t>Décima Regiduría</t>
+  </si>
+  <si>
+    <t>Décima Primera Regiduría</t>
+  </si>
+  <si>
+    <t>Décimo Segunda Regiduría</t>
+  </si>
+  <si>
+    <t>Décimo Tercer Regiduría</t>
+  </si>
+  <si>
+    <t>Coordinación de Logística</t>
+  </si>
+  <si>
+    <t>Dirección de Desarrollo Humano y Bienestar Social</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE TURISMO</t>
+  </si>
+  <si>
+    <t>Instituto Municipal de la Juventud</t>
+  </si>
+  <si>
+    <t>Presidencia Municipal</t>
+  </si>
+  <si>
+    <t>Dirección de Desarrollo Económico</t>
+  </si>
+  <si>
+    <t>Organo Interno de Control</t>
+  </si>
+  <si>
+    <t>Secretaría Particular</t>
+  </si>
+  <si>
+    <t>Secretaría Técnica</t>
+  </si>
+  <si>
+    <t>Coordinación de Comunicación Social</t>
+  </si>
+  <si>
+    <t>Dirección de Obras Públicas y Desarrollo Urbano</t>
+  </si>
+  <si>
+    <t>Dirección de Gobierno</t>
+  </si>
+  <si>
+    <t>Coordinación Jurídica</t>
+  </si>
+  <si>
+    <t>Unidad de Transparencia</t>
+  </si>
+  <si>
+    <t>Coordinación Municipal de Protección Civil</t>
+  </si>
+  <si>
+    <t>Dirección de Educación y Cultura</t>
+  </si>
+  <si>
+    <t>Coordinación General Municipal de Mejora Regulator</t>
+  </si>
+  <si>
+    <t>Secretaría del Ayuntamiento</t>
+  </si>
+  <si>
+    <t>Tesorería Municipal</t>
+  </si>
+  <si>
+    <t>Dirección de Servicios Públicos</t>
+  </si>
+  <si>
+    <t>Dirección de Administración</t>
+  </si>
+  <si>
+    <t>Dirección de Medio Ambiente</t>
+  </si>
+  <si>
+    <t>Dirección de Programas Sociales</t>
+  </si>
+  <si>
+    <t>Dirección de Seguridad Pública y Tránsito</t>
+  </si>
+  <si>
+    <t>Secretaría Técnica del Consejo de Seguridad Públic</t>
+  </si>
+  <si>
+    <t>Defensoría Municipal de Derechos Humanos</t>
+  </si>
+  <si>
+    <t>Instituto Municipal de la Mujer</t>
+  </si>
+  <si>
+    <t>Contraloria Municipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidad de Información, Planeación, Programación y </t>
+  </si>
+  <si>
+    <t>Dirección de Desarrollo Urbano</t>
+  </si>
+  <si>
+    <t>Dirección de Educación, Cultura y Turismo</t>
+  </si>
+  <si>
+    <t>Dirección de Desarrollo Metropolitano y Movilidad</t>
+  </si>
+  <si>
+    <t>Instituto de Cultura Física y Deporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCIÓN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBDIRECCIÓN </t>
+  </si>
+  <si>
+    <t>SUBDIRECCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTAMENTO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDAD DE INFORMACIÓN, PLANEACIÓN, PROGRAMACIÓN Y </t>
+  </si>
+  <si>
+    <t>CONTRALORÍA</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN GENERAL</t>
+  </si>
+  <si>
+    <t>SUBDIRECCIÓN DE CULTURA FÍSICA Y DEPORTE</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE ACTIVACIÓN FÍSICA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE NATACIÓN</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE FUTBOL Y BASQUETBOL</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE CONTABILIDAD Y TESORERÍA</t>
+  </si>
+  <si>
+    <t>SUBDIRECCIÓN DE ADMINISTRACIÓN Y FINANZAS DEL IMCU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,10 +630,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -444,9 +649,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -731,7 +938,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="3" customWidth="1"/>
     <col min="2" max="3" width="43" style="2" customWidth="1"/>
@@ -741,7 +948,7 @@
     <col min="12" max="12" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
@@ -804,9 +1011,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -814,7 +1021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -822,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -830,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -853,9 +1060,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -863,7 +1070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -871,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -879,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -887,7 +1094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -895,7 +1102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -903,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -911,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -919,7 +1126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -927,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -935,7 +1142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -943,7 +1150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -951,7 +1158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -959,7 +1166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -967,7 +1174,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -986,13 +1193,13 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1000,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1008,7 +1215,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1016,7 +1223,7 @@
         <v>28233</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1024,7 +1231,7 @@
         <v>4641</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1032,7 +1239,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1040,7 +1247,7 @@
         <v>4633</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1048,7 +1255,7 @@
         <v>4634</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1056,7 +1263,7 @@
         <v>4635</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1064,7 +1271,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1072,7 +1279,7 @@
         <v>4637</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1080,7 +1287,7 @@
         <v>4638</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1088,7 +1295,7 @@
         <v>4639</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1096,7 +1303,7 @@
         <v>4640</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1104,7 +1311,7 @@
         <v>4642</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1112,7 +1319,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1120,7 +1327,7 @@
         <v>4644</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1128,7 +1335,7 @@
         <v>4645</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1136,7 +1343,7 @@
         <v>22944</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1144,7 +1351,7 @@
         <v>54697</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1152,7 +1359,7 @@
         <v>57039</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1160,7 +1367,7 @@
         <v>57047</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1168,7 +1375,7 @@
         <v>28234</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1176,7 +1383,7 @@
         <v>4823</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1184,7 +1391,7 @@
         <v>44462</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1192,7 +1399,7 @@
         <v>4801</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1200,7 +1407,7 @@
         <v>4803</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1208,7 +1415,7 @@
         <v>4808</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1216,7 +1423,7 @@
         <v>4812</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1224,7 +1431,7 @@
         <v>4821</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1232,7 +1439,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1240,7 +1447,7 @@
         <v>14870</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1248,7 +1455,7 @@
         <v>22433</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1256,7 +1463,7 @@
         <v>57038</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1264,7 +1471,7 @@
         <v>57084</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -1272,7 +1479,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -1280,7 +1487,7 @@
         <v>4807</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1288,7 +1495,7 @@
         <v>4810</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -1296,7 +1503,7 @@
         <v>4813</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1304,7 +1511,7 @@
         <v>4820</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1312,7 +1519,7 @@
         <v>4824</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -1320,7 +1527,7 @@
         <v>4825</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -1328,7 +1535,7 @@
         <v>45743</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -1336,7 +1543,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -1344,7 +1551,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -1352,7 +1559,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -1360,7 +1567,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -1368,7 +1575,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -1376,7 +1583,7 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -1384,7 +1591,7 @@
         <v>22435</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -1392,7 +1599,7 @@
         <v>22432</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -1400,7 +1607,7 @@
         <v>34665</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -1408,7 +1615,7 @@
         <v>58055</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -1416,7 +1623,7 @@
         <v>58057</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -1424,7 +1631,7 @@
         <v>58058</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -1432,7 +1639,7 @@
         <v>58064</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -1440,7 +1647,7 @@
         <v>58065</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -1448,7 +1655,7 @@
         <v>58066</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -1456,7 +1663,7 @@
         <v>58074</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -1464,7 +1671,7 @@
         <v>58075</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -1472,7 +1679,7 @@
         <v>37386</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -1480,7 +1687,7 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -1488,7 +1695,7 @@
         <v>37389</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -1496,7 +1703,7 @@
         <v>37390</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -1504,7 +1711,7 @@
         <v>37392</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -1512,7 +1719,7 @@
         <v>37393</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -1528,21 +1735,1579 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="2" width="56" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>212</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>28233</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>4641</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4632</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4633</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4634</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4635</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4636</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>4637</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4638</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>4639</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>4640</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>4642</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>4643</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>4644</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>4645</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>22944</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>54697</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>57039</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>57047</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>28234</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>4823</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>44462</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>4801</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>4803</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>4808</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>4812</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>4821</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>4826</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>14870</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>22433</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>57038</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>57084</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>4800</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>4807</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>4810</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>4813</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>4820</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>4824</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4825</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>45743</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>4830</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>4833</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>4650</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>4804</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>4811</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>4822</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>22435</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>22432</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>34665</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>58055</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>58057</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>58058</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>58064</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>58065</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>58066</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>58074</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>58075</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>37386</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>37387</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>37389</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>37390</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>37392</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>37393</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>43829</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="5"/>
+    <col min="3" max="3" width="29" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5">
+        <v>212</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="5">
+        <f>SEARCH("&gt;",A2,4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5">
+        <v>28233</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D66" si="0">SEARCH("&gt;",A3,3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4641</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4632</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4633</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4634</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4635</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4636</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4637</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4638</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4639</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4640</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4642</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4643</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4644</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4645</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5">
+        <v>22944</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5">
+        <v>54697</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5">
+        <v>57039</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5">
+        <v>57047</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5">
+        <v>28234</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4823</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="5">
+        <v>44462</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="5">
+        <v>4801</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="5">
+        <v>4803</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4808</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="5">
+        <v>4812</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4821</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4826</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="5">
+        <v>14870</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="5">
+        <v>22433</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="5">
+        <v>57038</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="5">
+        <v>57084</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="5">
+        <v>4800</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="5">
+        <v>4807</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="5">
+        <v>4810</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4813</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4820</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="5">
+        <v>4824</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="5">
+        <v>4825</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="5">
+        <v>45743</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="5">
+        <v>4830</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="5">
+        <v>4833</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="5">
+        <v>4650</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="5">
+        <v>4804</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="5">
+        <v>4811</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="5">
+        <v>4822</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="5">
+        <v>22435</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="5">
+        <v>22432</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="5">
+        <v>34665</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="5">
+        <v>58055</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="5">
+        <v>58057</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="5">
+        <v>58058</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="5">
+        <v>58064</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="5">
+        <v>58065</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="5">
+        <v>58066</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="5">
+        <v>58074</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="5">
+        <v>58075</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="5">
+        <v>37386</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="5">
+        <v>37387</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="5">
+        <v>37389</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="5">
+        <v>37390</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="5">
+        <v>37392</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="5">
+        <v>37393</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="5">
+        <v>43829</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja8"/>
   <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="97.90625" customWidth="1"/>
+    <col min="5" max="5" width="97.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>119</v>
       </c>
@@ -1550,7 +3315,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -1567,7 +3332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1578,7 +3343,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1595,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1609,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1623,7 +3388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1640,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1654,7 +3419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1668,7 +3433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1682,7 +3447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1696,7 +3461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1710,7 +3475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1727,7 +3492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
